--- a/biology/Microbiologie/Enterobacter_bugandensis/Enterobacter_bugandensis.xlsx
+++ b/biology/Microbiologie/Enterobacter_bugandensis/Enterobacter_bugandensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Enterobacter bugandensis est une espèce de bactéries gram négatives de la famille des Enterobacteriaceae. C'est une bactérie pathogène capable de développer de s'adapter à l'environnement de la Station spatiale internationale.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bactéries de l'espèce Enterobacter bugandensis sont des bacilles très mobiles à coloration de Gram négative et anaérobies facultatives[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bactéries de l'espèce Enterobacter bugandensis sont des bacilles très mobiles à coloration de Gram négative et anaérobies facultatives.
 </t>
         </is>
       </c>
@@ -542,11 +556,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Enterobacter bugandensis Doijad et al. 2016[2].
-Étymologie
-Le nom de cette espèce a son étymologie liée au lieu de prélèvement de sa souche type avec bu.gand.en’sis. N.L. masc./fem. adj. bugandensis, ce qui se réfère au Bugando Medical Center à Mwanza en Tanzanie d'où elle vient [un meilleur épithète serait peut-être: bugandonensis][2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Enterobacter bugandensis Doijad et al. 2016.
 </t>
         </is>
       </c>
@@ -572,12 +586,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pathogénicité</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les bactéries de cette espèce sont reconnues comme des pathogènes humains responsables de septicémies néonatales[1]. Selon les modèles utilisés, elles seraient aussi infectieuses que Salmonella typhimurium[3]. Elles sont présentes de le Tractus gastro-intestinal humain[4].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de cette espèce a son étymologie liée au lieu de prélèvement de sa souche type avec bu.gand.en’sis. N.L. masc./fem. adj. bugandensis, ce qui se réfère au Bugando Medical Center à Mwanza en Tanzanie d'où elle vient [un meilleur épithète serait peut-être: bugandonensis].
 </t>
         </is>
       </c>
@@ -603,12 +623,47 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Pathogénicité</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bactéries de cette espèce sont reconnues comme des pathogènes humains responsables de septicémies néonatales. Selon les modèles utilisés, elles seraient aussi infectieuses que Salmonella typhimurium. Elles sont présentes de le Tractus gastro-intestinal humain.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Enterobacter_bugandensis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enterobacter_bugandensis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Multi-résistances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les souches bactériennes de cette espèce, présentes dans la station spatiale internationale, ont été capable de développer des mécanismes de résistance les plaçant dans le groupe des pathogènes ESKAPE, un groupe capable de résister à de nombreux agents anti-microbiens[4],[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les souches bactériennes de cette espèce, présentes dans la station spatiale internationale, ont été capable de développer des mécanismes de résistance les plaçant dans le groupe des pathogènes ESKAPE, un groupe capable de résister à de nombreux agents anti-microbiens,.
 </t>
         </is>
       </c>
